--- a/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
+++ b/데이터베이스 테이블/데이터베이스 상세 초안.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\새 폴더 (2)\project_file\데이터베이스 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE64F257-C34D-4187-95C7-44E6756B537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E21AC9-E2C9-4CFD-B808-7168F0C37845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="570" windowWidth="18915" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15720" yWindow="1920" windowWidth="21810" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="148">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Employees - 직원 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,14 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조퇴 시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지각/결석/조퇴 플래그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atte_start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atte_stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>work_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3000 Byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,18 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ot_worktime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ot_content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,7 +590,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문자</t>
+    <t>100 Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employees - 직원 테이블 [데이터 완료]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 플래그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot_work_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=미승인 , 1=승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차 승인 플래그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,6 +1243,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,13 +1300,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,48 +1319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1623,33 +1615,35 @@
     <col min="5" max="5" width="15.625" style="1"/>
     <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
     <col min="7" max="8" width="18.625" style="1" customWidth="1"/>
-    <col min="9" max="15" width="15.625" style="1"/>
+    <col min="9" max="9" width="15.625" style="1"/>
+    <col min="10" max="10" width="43.875" style="1" customWidth="1"/>
+    <col min="11" max="15" width="15.625" style="1"/>
     <col min="16" max="16" width="15.125" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="1"/>
+    <col min="18" max="18" width="48.125" style="1" customWidth="1"/>
     <col min="19" max="19" width="45.25" style="1" customWidth="1"/>
     <col min="20" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1660,10 +1654,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>15</v>
@@ -1681,7 +1675,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>19</v>
@@ -1690,7 +1684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1701,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -1722,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>11</v>
@@ -1731,7 +1725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -1772,7 +1766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>25</v>
@@ -1850,7 +1844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1869,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1877,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1893,30 +1887,30 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="H10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="L10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="H10" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="L10" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
@@ -1927,31 +1921,31 @@
         <v>32</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1965,29 +1959,28 @@
         <v>34</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2001,7 +1994,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>2</v>
@@ -2016,14 +2009,13 @@
         <v>2</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -2057,9 +2049,8 @@
       <c r="N14" s="7">
         <v>25</v>
       </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2088,14 +2079,13 @@
         <v>5</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
@@ -2137,29 +2127,29 @@
         <v>4</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="I19" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
+      <c r="B19" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="I19" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
     </row>
     <row r="20" spans="2:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
@@ -2168,36 +2158,36 @@
       <c r="C20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="L20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="M20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="N20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="O20" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2207,36 +2197,36 @@
       <c r="C21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="L21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="M21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="N21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="O21" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2246,15 +2236,15 @@
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>2</v>
@@ -2285,13 +2275,13 @@
       <c r="C23" s="3">
         <v>13</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>3</v>
@@ -2322,7 +2312,7 @@
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2359,9 +2349,9 @@
         <v>26</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="4">
         <v>15</v>
@@ -2384,11 +2374,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="20" t="s">
-        <v>45</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
@@ -2406,84 +2396,55 @@
     </row>
     <row r="27" spans="2:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="42"/>
+      <c r="B28" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
     </row>
     <row r="29" spans="2:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="44" t="s">
+      <c r="G29" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="H29" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q29" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="R29" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>120</v>
+      <c r="I29" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2491,55 +2452,28 @@
         <v>1</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="I30" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q30" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="R30" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="S30" s="13" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2553,7 +2487,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>24</v>
@@ -2565,36 +2499,9 @@
         <v>22</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="R31" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="S31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2613,28 +2520,13 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="4">
-        <v>13</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53">
-        <v>60</v>
-      </c>
-      <c r="S32" s="7">
+        <v>113</v>
+      </c>
+      <c r="J32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2645,7 +2537,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>25</v>
@@ -2657,45 +2549,18 @@
         <v>25</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="R33" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2703,26 +2568,11 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>4</v>
       </c>
@@ -2732,143 +2582,130 @@
       <c r="D35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="45"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-    </row>
-    <row r="37" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-    </row>
-    <row r="38" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+    </row>
+    <row r="37" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+    </row>
+    <row r="38" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="E38" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="F38" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="O38" s="50"/>
-      <c r="P38" s="47"/>
-    </row>
-    <row r="39" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O38" s="44"/>
+      <c r="P38" s="34"/>
+    </row>
+    <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="F39" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="48">
+        <v>92</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="35">
         <v>0</v>
       </c>
-      <c r="O39" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="P39" s="47"/>
-    </row>
-    <row r="40" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O39" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="P39" s="34"/>
+    </row>
+    <row r="40" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="48">
+        <v>93</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="35">
         <v>1</v>
       </c>
-      <c r="O40" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="P40" s="47"/>
-    </row>
-    <row r="41" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O40" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="P40" s="34"/>
+    </row>
+    <row r="41" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
@@ -2877,42 +2714,42 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
-      <c r="N41" s="49">
+      <c r="N41" s="36">
         <v>2</v>
       </c>
-      <c r="O41" s="49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O41" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N42" s="49">
+        <v>88</v>
+      </c>
+      <c r="N42" s="36">
         <v>3</v>
       </c>
-      <c r="O42" s="49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O42" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>26</v>
       </c>
@@ -2922,117 +2759,282 @@
       <c r="F43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="49">
+      <c r="N43" s="36">
         <v>4</v>
       </c>
-      <c r="O43" s="49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O43" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="N44" s="49">
+      <c r="N44" s="36">
         <v>5</v>
       </c>
-      <c r="O44" s="49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-    </row>
-    <row r="47" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="42"/>
+      <c r="O44" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
-    </row>
-    <row r="48" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-    </row>
-    <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-    </row>
-    <row r="51" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-    </row>
-    <row r="52" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-    </row>
-    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47" s="44"/>
+    </row>
+    <row r="48" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48" s="35">
+        <v>0</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K49" s="35">
+        <v>1</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="36">
+        <v>2</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4">
+        <v>13</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39">
+        <v>60</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="36">
+        <v>3</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="36">
+        <v>4</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="36">
+        <v>5</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="B28:I28"/>
+  <mergeCells count="13">
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="K47:L47"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="J28:S28"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="I19:O19"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="B28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
